--- a/12.16_28.xlsx
+++ b/12.16_28.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Biomaterials%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Biomaterials%22</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>Machinery and Machine Elements</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Materials+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Materials+Engineering%22</t>
+  </si>
+  <si>
+    <t>Materials Engineering</t>
+  </si>
+  <si>
+    <t>来源：Sprnger Link   位置：2014-2019</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,88 +343,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -325,29 +357,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -358,6 +367,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,19 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,151 +523,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,17 +576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,7 +604,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,35 +658,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,19 +678,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,118 +699,121 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -864,6 +876,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1162,19 +1183,19 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="93.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="93.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1188,7 +1209,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1202,7 +1223,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="54" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1216,7 +1237,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1230,7 +1251,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1244,7 +1265,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="54" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1258,7 +1279,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1272,7 +1293,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1286,7 +1307,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1300,7 +1321,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1314,7 +1335,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="54" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1328,7 +1349,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1342,7 +1363,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1356,7 +1377,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1370,7 +1391,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1384,7 +1405,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="54" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1398,7 +1419,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1412,160 +1433,163 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
+      <c r="A18" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
+      <c r="A19" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
+      <c r="A20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>39</v>
+      <c r="A21" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>41</v>
+      <c r="A22" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
+      <c r="A23" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>45</v>
+      <c r="A24" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A25" s="3" t="s">
-        <v>47</v>
+      <c r="A25" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="54" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="54" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
         <v>281</v>
       </c>
     </row>
+    <row r="28" s="2" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Biomaterials%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Biomaterials%22"/>
     <hyperlink ref="A2" r:id="rId2" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Numerical+Analysis%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Numerical+Analysis%22"/>
@@ -1584,17 +1608,17 @@
     <hyperlink ref="A15" r:id="rId15" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Mathematical+Methods+in+Physics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Mathematical+Methods+in+Physics%22"/>
     <hyperlink ref="A16" r:id="rId16" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Science%2C+Humanities+and+Social+Sciences%2C+multidisciplinary%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Science%2C+Humanities+and+Social+Sciences%2C+multidisciplinary%22"/>
     <hyperlink ref="A17" r:id="rId17" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Human+Physiology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Human+Physiology%22"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Human+Physiology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Human+Physiology%22"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Operations+Management%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Operations+Management%22"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Civil+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Civil+Engineering%22"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Biomedicine+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Biomedicine+general%22"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Math+Applications+in+Computer+Science%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Math+Applications+in+Computer+Science%22"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Hematology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Hematology%22"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Aerospace+Technology+and+Astronautics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Aerospace+Technology+and+Astronautics%22"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Bioinformatics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Bioinformatics%22"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Sustainable+Development%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Sustainable+Development%22"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Atmospheric+Protection%2FAir+Quality+Control%2FAir+Pollution%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Atmospheric+Protection%2FAir+Quality+Control%2FAir+Pollution%22"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Machinery+and+Machine+Elements%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Machinery+and+Machine+Elements%22"/>
+    <hyperlink ref="A27" r:id="rId18" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Machinery+and+Machine+Elements%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Machinery+and+Machine+Elements%22"/>
+    <hyperlink ref="A26" r:id="rId19" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Atmospheric+Protection%2FAir+Quality+Control%2FAir+Pollution%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Atmospheric+Protection%2FAir+Quality+Control%2FAir+Pollution%22"/>
+    <hyperlink ref="A25" r:id="rId20" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Sustainable+Development%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Sustainable+Development%22"/>
+    <hyperlink ref="A24" r:id="rId21" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Bioinformatics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Bioinformatics%22"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Aerospace+Technology+and+Astronautics%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Aerospace+Technology+and+Astronautics%22"/>
+    <hyperlink ref="A22" r:id="rId23" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Hematology%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Hematology%22"/>
+    <hyperlink ref="A21" r:id="rId24" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Math+Applications+in+Computer+Science%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Math+Applications+in+Computer+Science%22"/>
+    <hyperlink ref="A20" r:id="rId25" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Biomedicine+general%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Biomedicine+general%22"/>
+    <hyperlink ref="A19" r:id="rId26" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Civil+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Civil+Engineering%22"/>
+    <hyperlink ref="A18" r:id="rId27" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Operations+Management%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Operations+Management%22"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Materials+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Materials+Engineering%22" tooltip="https://link.springer.com/search/page/{}?facet-content-type=ConferencePaper&amp;facet-sub-discipline=%22Materials+Engineering%22&amp;just-selected-from-overlay=facet-sub-discipline&amp;just-selected-from-overlay-value=%22Materials+Engineering%22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
